--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados2.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,145 +380,150 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>AMT_CREDIT_YEARS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>AMT_CREDIT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AMT_ANNUITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AMT_GOODS_PRICE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>NAME_TYPE_SUITE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>NAME_INCOME_TYPE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>NAME_EDUCATION_TYPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NAME_FAMILY_STATUS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>NAME_HOUSING_TYPE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>REGION_POPULATION_RELATIVE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DAYS_BIRTH</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DAYS_EMPLOYED</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DAYS_REGISTRATION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DAYS_ID_PUBLISH</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>OWN_CAR_AGE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMP_PHONE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FLAG_WORK_PHONE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FLAG_CONT_MOBILE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FLAG_PHONE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMAIL</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>OCCUPATION_TYPE</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CNT_FAM_MEMBERS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>REGION_RATING_CLIENT</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>WEEKDAY_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>HOUR_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>ORGANIZATION_TYPE</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>APARTMENTS_AVG</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>DAYS_LAST_PHONE_CHANGE</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>AMT_REQ_CREDIT_BUREAU</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>DEF_CNT_SOCIAL_CIRCLE</t>
         </is>
@@ -538,103 +543,106 @@
         <v>112500</v>
       </c>
       <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2">
         <v>135000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6750</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>382500</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.019101</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-17354</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>-2392</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-7946</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-901</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
-      </c>
-      <c r="Y2">
-        <v>2</v>
       </c>
       <c r="Z2">
         <v>2</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>12</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>-771</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4</v>
       </c>
     </row>
@@ -652,98 +660,101 @@
         <v>67500</v>
       </c>
       <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
         <v>157500</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7875</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>202500</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Pensioner</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Separated</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.019689</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-22630</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>365243</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-6947</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-4595</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
         <v>1</v>
       </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
       <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>SUNDAY</t>
         </is>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>9</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>XNA</t>
         </is>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.1237</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-4</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0</v>
       </c>
     </row>
@@ -761,98 +772,101 @@
         <v>112500</v>
       </c>
       <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
         <v>225000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>11250</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>337500</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Pensioner</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.00496</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-21914</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>365243</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-8336</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-4121</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>2</v>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>18</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>XNA</t>
         </is>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.07630000000000001</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>1</v>
       </c>
     </row>

--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados2.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,514 +360,178 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>SK_ID_CURR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>TARGET</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>CODE_GENDER</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CNT_CHILDREN</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>AMT_INCOME_TOTAL</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AMT_CREDIT_YEARS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AMT_CREDIT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AMT_ANNUITY</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>AMT_GOODS_PRICE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>NAME_TYPE_SUITE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>NAME_INCOME_TYPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NAME_EDUCATION_TYPE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>NAME_FAMILY_STATUS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NAME_HOUSING_TYPE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>REGION_POPULATION_RELATIVE</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DAYS_BIRTH</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DAYS_EMPLOYED</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DAYS_REGISTRATION</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>DAYS_ID_PUBLISH</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>OWN_CAR_AGE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMP_PHONE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FLAG_WORK_PHONE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FLAG_CONT_MOBILE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>FLAG_PHONE</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMAIL</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>OCCUPATION_TYPE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>CNT_FAM_MEMBERS</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>REGION_RATING_CLIENT</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>WEEKDAY_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>HOUR_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>ORGANIZATION_TYPE</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>APARTMENTS_AVG</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>DAYS_LAST_PHONE_CHANGE</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>AMT_REQ_CREDIT_BUREAU</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>DEF_CNT_SOCIAL_CIRCLE</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>112500</v>
-      </c>
-      <c r="E2">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>135000</v>
-      </c>
-      <c r="G2">
-        <v>6750</v>
-      </c>
-      <c r="H2">
-        <v>382500</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Unaccompanied</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Commercial associate</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Secondary / secondary special</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="N2">
-        <v>0.019101</v>
-      </c>
-      <c r="O2">
-        <v>-17354</v>
-      </c>
-      <c r="P2">
-        <v>-2392</v>
-      </c>
-      <c r="Q2">
-        <v>-7946</v>
-      </c>
-      <c r="R2">
-        <v>-901</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Drivers</t>
-        </is>
-      </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>THURSDAY</t>
-        </is>
-      </c>
-      <c r="AC2">
-        <v>12</v>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Self-employed</t>
-        </is>
-      </c>
-      <c r="AF2">
-        <v>-771</v>
-      </c>
-      <c r="AG2">
-        <v>3</v>
-      </c>
-      <c r="AH2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>67500</v>
-      </c>
-      <c r="E3">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>157500</v>
-      </c>
-      <c r="G3">
-        <v>7875</v>
-      </c>
-      <c r="H3">
-        <v>202500</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Unaccompanied</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Pensioner</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Secondary / secondary special</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Separated</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="N3">
-        <v>0.019689</v>
-      </c>
-      <c r="O3">
-        <v>-22630</v>
-      </c>
-      <c r="P3">
-        <v>365243</v>
-      </c>
-      <c r="Q3">
-        <v>-6947</v>
-      </c>
-      <c r="R3">
-        <v>-4595</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>SUNDAY</t>
-        </is>
-      </c>
-      <c r="AC3">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>XNA</t>
-        </is>
-      </c>
-      <c r="AE3">
-        <v>0.1237</v>
-      </c>
-      <c r="AF3">
-        <v>-4</v>
-      </c>
-      <c r="AG3">
-        <v>2</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>112500</v>
-      </c>
-      <c r="E4">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>225000</v>
-      </c>
-      <c r="G4">
-        <v>11250</v>
-      </c>
-      <c r="H4">
-        <v>337500</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Family</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Pensioner</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Secondary / secondary special</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="N4">
-        <v>0.00496</v>
-      </c>
-      <c r="O4">
-        <v>-21914</v>
-      </c>
-      <c r="P4">
-        <v>365243</v>
-      </c>
-      <c r="Q4">
-        <v>-8336</v>
-      </c>
-      <c r="R4">
-        <v>-4121</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>MONDAY</t>
-        </is>
-      </c>
-      <c r="AC4">
-        <v>18</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>XNA</t>
-        </is>
-      </c>
-      <c r="AE4">
-        <v>0.07630000000000001</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
